--- a/bin/testdata/regTestdata.xlsx
+++ b/bin/testdata/regTestdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shivam_kushwaha\eclipse-workspace\ShoppingPortal\src\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9745C8-DE14-49DF-897A-77DF30DBA82C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CCA249-58C8-424A-9195-5BBB61BAFFCA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CC31A2FF-7F59-4B39-8234-9CDEA7BCDCFF}"/>
+    <workbookView xWindow="2540" yWindow="2540" windowWidth="14400" windowHeight="7360" xr2:uid="{CC31A2FF-7F59-4B39-8234-9CDEA7BCDCFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,13 +81,13 @@
     <t>You are successfully register</t>
   </si>
   <si>
-    <t>fake4</t>
-  </si>
-  <si>
-    <t>fake4@g.com</t>
-  </si>
-  <si>
-    <t>fake@1234</t>
+    <t>fake5</t>
+  </si>
+  <si>
+    <t>fake5@g.com</t>
+  </si>
+  <si>
+    <t>fake@12345</t>
   </si>
 </sst>
 </file>
@@ -453,7 +453,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -529,7 +529,7 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>987654321</v>
+        <v>987654341</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>17</v>

--- a/bin/testdata/regTestdata.xlsx
+++ b/bin/testdata/regTestdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shivam_kushwaha\eclipse-workspace\ShoppingPortal\src\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CCA249-58C8-424A-9195-5BBB61BAFFCA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB98CFA-3AE5-43B6-8F22-23C343F51E3D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2540" yWindow="2540" windowWidth="14400" windowHeight="7360" xr2:uid="{CC31A2FF-7F59-4B39-8234-9CDEA7BCDCFF}"/>
+    <workbookView xWindow="2200" yWindow="2200" windowWidth="14400" windowHeight="7360" xr2:uid="{CC31A2FF-7F59-4B39-8234-9CDEA7BCDCFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,9 +51,6 @@
     <t>confirm</t>
   </si>
   <si>
-    <t>remark</t>
-  </si>
-  <si>
     <t>fake1</t>
   </si>
   <si>
@@ -81,20 +78,23 @@
     <t>You are successfully register</t>
   </si>
   <si>
-    <t>fake5</t>
-  </si>
-  <si>
-    <t>fake5@g.com</t>
-  </si>
-  <si>
     <t>fake@12345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected </t>
+  </si>
+  <si>
+    <t>fake10</t>
+  </si>
+  <si>
+    <t>fake10@g.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,13 +110,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -132,9 +146,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -453,7 +468,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -462,31 +477,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
+      <c r="F1" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="C2">
         <v>1234567890</v>
@@ -498,47 +513,47 @@
         <v>123</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C3">
         <v>1234567890</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4">
-        <v>987654341</v>
+        <v>987654321</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -552,5 +567,6 @@
     <hyperlink ref="E4" r:id="rId7" xr:uid="{FE5ED870-7806-472C-ACDB-7925965A2ECE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>